--- a/data/case1/15/Qlm1_2.xlsx
+++ b/data/case1/15/Qlm1_2.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.7109375" customWidth="true"/>
+    <col min="2" max="2" width="16.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.27915983601256045</v>
+        <v>-0.22826733537822008</v>
       </c>
       <c r="B1" s="0">
-        <v>0.27839623400438995</v>
+        <v>0.22775617450906083</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.17309304318426477</v>
+        <v>-0.15706952188144641</v>
       </c>
       <c r="B2" s="0">
-        <v>0.17146960394998878</v>
+        <v>0.155707033183071</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.12174999188031066</v>
+        <v>-0.10599120523820638</v>
       </c>
       <c r="B3" s="0">
-        <v>0.12125082616756622</v>
+        <v>0.10561410882420752</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.11325082619178062</v>
+        <v>-0.09761410891181832</v>
       </c>
       <c r="B4" s="0">
-        <v>0.11280212725152161</v>
+        <v>0.097282746054345282</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.10980212726591798</v>
+        <v>-0.094282746101962189</v>
       </c>
       <c r="B5" s="0">
-        <v>0.10827926671014598</v>
+        <v>0.093167245180015179</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0089870846601929344</v>
+        <v>-0.0096316468721902027</v>
       </c>
       <c r="B6" s="0">
-        <v>0.0089123904825054723</v>
+        <v>0.009574037129183921</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0010876094832785732</v>
+        <v>0.00042596275043838006</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.0010947593632186781</v>
+        <v>-0.0004296379584949328</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.011094759329086212</v>
+        <v>0.010429637838437866</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.011100919519575037</v>
+        <v>-0.01043549905774821</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.013100919504378972</v>
+        <v>0.012435499011243856</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.01311046854173048</v>
+        <v>-0.012447659975675318</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.015110468527254284</v>
+        <v>0.014447659931621004</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.015111542215887397</v>
+        <v>-0.014447499286580623</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.017952635813110795</v>
+        <v>0.017447499233765207</v>
       </c>
       <c r="B11" s="0">
-        <v>0.017936024674529705</v>
+        <v>-0.017452392335887801</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.020866473958830234</v>
+        <v>0.020952392279024235</v>
       </c>
       <c r="B12" s="0">
-        <v>0.020671853876531809</v>
+        <v>-0.021039435200280732</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.017171853895984412</v>
+        <v>0.024539435148572153</v>
       </c>
       <c r="B13" s="0">
-        <v>0.017083008258354404</v>
+        <v>-0.024616657803123054</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0090830082884085783</v>
+        <v>0.032616657713505859</v>
       </c>
       <c r="B14" s="0">
-        <v>0.0090537816712057406</v>
+        <v>-0.032720946734024814</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.008053781685424255</v>
+        <v>-0.0080504676448018841</v>
       </c>
       <c r="B15" s="0">
-        <v>0.008034892801705773</v>
+        <v>0.0080329657944817612</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0060348928184201789</v>
+        <v>-0.0060329658282927134</v>
       </c>
       <c r="B16" s="0">
-        <v>0.006003690717125032</v>
+        <v>0.0060030925594309892</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0040036907340859074</v>
+        <v>-0.004003092594011548</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999999783653095</v>
+        <v>0.0039999999472879466</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.099303190834817201</v>
+        <v>-0.064686652683160872</v>
       </c>
       <c r="B18" s="0">
-        <v>0.098997266589009314</v>
+        <v>0.064564465661405279</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.055246481855103724</v>
+        <v>-0.012091614400012496</v>
       </c>
       <c r="B19" s="0">
-        <v>0.054494956854150178</v>
+        <v>0.012016390300471969</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0080174903528504871</v>
+        <v>-0.0080163903419574467</v>
       </c>
       <c r="B20" s="0">
-        <v>0.0080058203085009438</v>
+        <v>0.0080056622897846097</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040058203226047695</v>
+        <v>-0.0040056623316697682</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999858038038</v>
+        <v>0.0039999999577799983</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.045719612083052752</v>
+        <v>-0.045715827992232505</v>
       </c>
       <c r="B22" s="0">
-        <v>0.045503805735998881</v>
+        <v>0.045501703705172147</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.040503805752453381</v>
+        <v>-0.040501703764333818</v>
       </c>
       <c r="B23" s="0">
-        <v>0.040100052551332865</v>
+        <v>0.040099473700155208</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020100052603511998</v>
+        <v>-0.020099473898324227</v>
       </c>
       <c r="B24" s="0">
-        <v>0.01999999994708368</v>
+        <v>0.019999999799257928</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.097292182065972455</v>
+        <v>-0.081535598357447725</v>
       </c>
       <c r="B25" s="0">
-        <v>0.097164372847075242</v>
+        <v>0.081448557706512048</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.094664372865022273</v>
+        <v>-0.078948557762650751</v>
       </c>
       <c r="B26" s="0">
-        <v>0.094500353568840012</v>
+        <v>0.078837313479725779</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.092000353587900374</v>
+        <v>-0.076337313538812346</v>
       </c>
       <c r="B27" s="0">
-        <v>0.091032895164258942</v>
+        <v>0.075683117992324966</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.089032895186799799</v>
+        <v>-0.073683118059850727</v>
       </c>
       <c r="B28" s="0">
-        <v>0.088370395511571331</v>
+        <v>0.073243833186950269</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.081370395548772123</v>
+        <v>-0.066243833307741973</v>
       </c>
       <c r="B29" s="0">
-        <v>0.081178012001733357</v>
+        <v>0.06612370101217202</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.021178012161988224</v>
+        <v>-0.006123701610680321</v>
       </c>
       <c r="B30" s="0">
-        <v>0.021025191974411328</v>
+        <v>0.0060671659287847568</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014025192014401</v>
+        <v>-0.014022487380049853</v>
       </c>
       <c r="B31" s="0">
-        <v>0.014001622597467289</v>
+        <v>0.014000911027974183</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0040016226444841152</v>
+        <v>-0.0040009111813379405</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0039999999666626707</v>
+        <v>0.0039999999001345543</v>
       </c>
     </row>
   </sheetData>
